--- a/bio_diversity/static/data_templates/mactaquac-master entry.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-master entry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,236 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, eg: 13:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EG. BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999 FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, M/F/I/IT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, eg: 13:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EG. BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999 FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. Bonell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,11 +309,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -123,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,6 +390,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,11 +671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J604"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,13 +693,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -500,7 +738,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="7"/>
       <c r="J5" s="9"/>
     </row>
@@ -5898,15 +6136,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,13 +6156,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -5951,5 +6190,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>